--- a/SchedulingData/dynamic15/pso/scheduling2_4.xlsx
+++ b/SchedulingData/dynamic15/pso/scheduling2_4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,59 +462,59 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>234.2</v>
+        <v>202.64</v>
       </c>
       <c r="D2" t="n">
-        <v>320.06</v>
+        <v>264.94</v>
       </c>
       <c r="E2" t="n">
-        <v>13.504</v>
+        <v>12.056</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>232.82</v>
+        <v>219.82</v>
       </c>
       <c r="D3" t="n">
-        <v>280.2</v>
+        <v>296.52</v>
       </c>
       <c r="E3" t="n">
-        <v>14.4</v>
+        <v>13.468</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>320.06</v>
+        <v>226.44</v>
       </c>
       <c r="D4" t="n">
-        <v>364.86</v>
+        <v>282.6</v>
       </c>
       <c r="E4" t="n">
-        <v>10.644</v>
+        <v>10.44</v>
       </c>
     </row>
     <row r="5">
@@ -523,74 +523,74 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>208.74</v>
+        <v>243.14</v>
       </c>
       <c r="D5" t="n">
-        <v>294.4</v>
+        <v>321.36</v>
       </c>
       <c r="E5" t="n">
-        <v>15.02</v>
+        <v>9.183999999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>243.8</v>
+        <v>282.6</v>
       </c>
       <c r="D6" t="n">
-        <v>306.1</v>
+        <v>318.64</v>
       </c>
       <c r="E6" t="n">
-        <v>11.52</v>
+        <v>7.476</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>294.4</v>
+        <v>318.64</v>
       </c>
       <c r="D7" t="n">
-        <v>363.16</v>
+        <v>383.84</v>
       </c>
       <c r="E7" t="n">
-        <v>10.764</v>
+        <v>3.576</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>363.16</v>
+        <v>296.52</v>
       </c>
       <c r="D8" t="n">
-        <v>429.64</v>
+        <v>331.14</v>
       </c>
       <c r="E8" t="n">
-        <v>7.236</v>
+        <v>11.136</v>
       </c>
     </row>
     <row r="9">
@@ -599,397 +599,397 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>253.26</v>
+        <v>331.14</v>
       </c>
       <c r="D9" t="n">
-        <v>314.4</v>
+        <v>377.8</v>
       </c>
       <c r="E9" t="n">
-        <v>10.7</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>268.26</v>
+        <v>215.74</v>
       </c>
       <c r="D10" t="n">
-        <v>331.58</v>
+        <v>273.12</v>
       </c>
       <c r="E10" t="n">
-        <v>8.672000000000001</v>
+        <v>15.728</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>314.4</v>
+        <v>273.12</v>
       </c>
       <c r="D11" t="n">
-        <v>376.44</v>
+        <v>329.36</v>
       </c>
       <c r="E11" t="n">
-        <v>7.116</v>
+        <v>12.224</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>376.44</v>
+        <v>264.94</v>
       </c>
       <c r="D12" t="n">
-        <v>460.94</v>
+        <v>310.9</v>
       </c>
       <c r="E12" t="n">
-        <v>2.256</v>
+        <v>9.08</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>429.64</v>
+        <v>329.36</v>
       </c>
       <c r="D13" t="n">
-        <v>472.3</v>
+        <v>381.96</v>
       </c>
       <c r="E13" t="n">
-        <v>4.1</v>
+        <v>8.584</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>280.2</v>
+        <v>234.76</v>
       </c>
       <c r="D14" t="n">
-        <v>315.1</v>
+        <v>309.34</v>
       </c>
       <c r="E14" t="n">
-        <v>12.04</v>
+        <v>11.256</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>306.1</v>
+        <v>309.34</v>
       </c>
       <c r="D15" t="n">
-        <v>374.7</v>
+        <v>373</v>
       </c>
       <c r="E15" t="n">
-        <v>9.24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>374.7</v>
+        <v>381.96</v>
       </c>
       <c r="D16" t="n">
-        <v>437.1</v>
+        <v>452.86</v>
       </c>
       <c r="E16" t="n">
-        <v>7.08</v>
+        <v>3.604</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>331.58</v>
+        <v>310.9</v>
       </c>
       <c r="D17" t="n">
-        <v>414.08</v>
+        <v>349.02</v>
       </c>
       <c r="E17" t="n">
-        <v>5.032</v>
+        <v>5.908</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>472.3</v>
+        <v>349.02</v>
       </c>
       <c r="D18" t="n">
-        <v>527.6</v>
+        <v>406.9</v>
       </c>
       <c r="E18" t="n">
-        <v>0.2</v>
+        <v>2.74</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>527.6</v>
+        <v>452.86</v>
       </c>
       <c r="D19" t="n">
-        <v>604</v>
+        <v>513.72</v>
       </c>
       <c r="E19" t="n">
-        <v>30</v>
+        <v>0.128</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>414.08</v>
+        <v>513.72</v>
       </c>
       <c r="D20" t="n">
-        <v>466.16</v>
+        <v>619.86</v>
       </c>
       <c r="E20" t="n">
-        <v>1.964</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>466.16</v>
+        <v>321.36</v>
       </c>
       <c r="D21" t="n">
-        <v>529.23</v>
+        <v>372.3</v>
       </c>
       <c r="E21" t="n">
-        <v>30</v>
+        <v>6.22</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>460.94</v>
+        <v>372.3</v>
       </c>
       <c r="D22" t="n">
-        <v>538.33</v>
+        <v>438.26</v>
       </c>
       <c r="E22" t="n">
-        <v>30</v>
+        <v>2.244</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>538.33</v>
+        <v>383.84</v>
       </c>
       <c r="D23" t="n">
-        <v>584.63</v>
+        <v>431.76</v>
       </c>
       <c r="E23" t="n">
-        <v>26.56</v>
+        <v>0.404</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>584.63</v>
+        <v>431.76</v>
       </c>
       <c r="D24" t="n">
-        <v>672.53</v>
+        <v>497.95</v>
       </c>
       <c r="E24" t="n">
-        <v>22.36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>364.86</v>
+        <v>619.86</v>
       </c>
       <c r="D25" t="n">
-        <v>404.02</v>
+        <v>675.3</v>
       </c>
       <c r="E25" t="n">
-        <v>7.368</v>
+        <v>26.656</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>437.1</v>
+        <v>497.95</v>
       </c>
       <c r="D26" t="n">
-        <v>513.52</v>
+        <v>568.4299999999999</v>
       </c>
       <c r="E26" t="n">
-        <v>3.048</v>
+        <v>26.112</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>672.53</v>
+        <v>438.26</v>
       </c>
       <c r="D27" t="n">
-        <v>704.37</v>
+        <v>535.27</v>
       </c>
       <c r="E27" t="n">
-        <v>19.816</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>315.1</v>
+        <v>535.27</v>
       </c>
       <c r="D28" t="n">
-        <v>369.42</v>
+        <v>612.65</v>
       </c>
       <c r="E28" t="n">
-        <v>9.708</v>
+        <v>25.912</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>513.52</v>
+        <v>612.65</v>
       </c>
       <c r="D29" t="n">
-        <v>574.58</v>
+        <v>669.03</v>
       </c>
       <c r="E29" t="n">
-        <v>0.07199999999999999</v>
+        <v>22.384</v>
       </c>
     </row>
     <row r="30">
@@ -998,17 +998,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>574.58</v>
+        <v>406.9</v>
       </c>
       <c r="D30" t="n">
-        <v>670.9400000000001</v>
+        <v>444.9</v>
       </c>
       <c r="E30" t="n">
-        <v>30</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="31">
@@ -1017,74 +1017,74 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>670.9400000000001</v>
+        <v>444.9</v>
       </c>
       <c r="D31" t="n">
-        <v>731.4400000000001</v>
+        <v>555.04</v>
       </c>
       <c r="E31" t="n">
-        <v>26.62</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>369.42</v>
+        <v>568.4299999999999</v>
       </c>
       <c r="D32" t="n">
-        <v>419.92</v>
+        <v>614.45</v>
       </c>
       <c r="E32" t="n">
-        <v>6.288</v>
+        <v>22.64</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>731.4400000000001</v>
+        <v>373</v>
       </c>
       <c r="D33" t="n">
-        <v>772.38</v>
+        <v>435.5</v>
       </c>
       <c r="E33" t="n">
-        <v>23.656</v>
+        <v>3.36</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>704.37</v>
+        <v>435.5</v>
       </c>
       <c r="D34" t="n">
-        <v>743.89</v>
+        <v>530.08</v>
       </c>
       <c r="E34" t="n">
-        <v>17.484</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35">
@@ -1093,169 +1093,169 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>404.02</v>
+        <v>530.08</v>
       </c>
       <c r="D35" t="n">
-        <v>459.66</v>
+        <v>571.28</v>
       </c>
       <c r="E35" t="n">
-        <v>4.404</v>
+        <v>26.58</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>459.66</v>
+        <v>614.45</v>
       </c>
       <c r="D36" t="n">
-        <v>541.16</v>
+        <v>648.1900000000001</v>
       </c>
       <c r="E36" t="n">
-        <v>1.324</v>
+        <v>20.396</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>541.16</v>
+        <v>555.04</v>
       </c>
       <c r="D37" t="n">
-        <v>610.51</v>
+        <v>592.72</v>
       </c>
       <c r="E37" t="n">
-        <v>30</v>
+        <v>26.932</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>529.23</v>
+        <v>377.8</v>
       </c>
       <c r="D38" t="n">
-        <v>567.95</v>
+        <v>455.4</v>
       </c>
       <c r="E38" t="n">
-        <v>26.828</v>
+        <v>3.96</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>772.38</v>
+        <v>675.3</v>
       </c>
       <c r="D39" t="n">
-        <v>829.98</v>
+        <v>725</v>
       </c>
       <c r="E39" t="n">
-        <v>20.016</v>
+        <v>23.796</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>567.95</v>
+        <v>571.28</v>
       </c>
       <c r="D40" t="n">
-        <v>621.15</v>
+        <v>623.9400000000001</v>
       </c>
       <c r="E40" t="n">
-        <v>23.648</v>
+        <v>23.444</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>604</v>
+        <v>623.9400000000001</v>
       </c>
       <c r="D41" t="n">
-        <v>676.98</v>
+        <v>672.9</v>
       </c>
       <c r="E41" t="n">
-        <v>26.832</v>
+        <v>20.168</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>419.92</v>
+        <v>455.4</v>
       </c>
       <c r="D42" t="n">
-        <v>474.76</v>
+        <v>519.9</v>
       </c>
       <c r="E42" t="n">
-        <v>2.944</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>610.51</v>
+        <v>519.9</v>
       </c>
       <c r="D43" t="n">
-        <v>693.21</v>
+        <v>608.2</v>
       </c>
       <c r="E43" t="n">
-        <v>26.36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44">
@@ -1264,112 +1264,93 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>676.98</v>
+        <v>669.03</v>
       </c>
       <c r="D44" t="n">
-        <v>731.14</v>
+        <v>741.53</v>
       </c>
       <c r="E44" t="n">
-        <v>24.016</v>
+        <v>20.224</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>731.14</v>
+        <v>672.9</v>
       </c>
       <c r="D45" t="n">
-        <v>764.88</v>
+        <v>745.8</v>
       </c>
       <c r="E45" t="n">
-        <v>21.772</v>
+        <v>16.988</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>693.21</v>
+        <v>608.2</v>
       </c>
       <c r="D46" t="n">
-        <v>761.13</v>
+        <v>673.12</v>
       </c>
       <c r="E46" t="n">
-        <v>23.188</v>
+        <v>27.668</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>621.15</v>
+        <v>592.72</v>
       </c>
       <c r="D47" t="n">
-        <v>691.97</v>
+        <v>631.8200000000001</v>
       </c>
       <c r="E47" t="n">
-        <v>20.176</v>
+        <v>24.652</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>474.76</v>
+        <v>673.12</v>
       </c>
       <c r="D48" t="n">
-        <v>567.0599999999999</v>
+        <v>714.76</v>
       </c>
       <c r="E48" t="n">
-        <v>0.784</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>6</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>depot1</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>567.0599999999999</v>
-      </c>
-      <c r="D49" t="n">
-        <v>676.79</v>
-      </c>
-      <c r="E49" t="n">
-        <v>30</v>
+        <v>25.124</v>
       </c>
     </row>
   </sheetData>
